--- a/sinkhole_data/구별/남구.xlsx
+++ b/sinkhole_data/구별/남구.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogs0\OneDrive\바탕 화면\2025 전국대학생 CM•시공 경진대회\싱크홀 데이터\구별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A607F69-A39A-43DE-BAC6-690DBA988715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A09015B-65B8-428A-A206-9CF22763FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="1510" windowWidth="11630" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="11630" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,15 +98,15 @@
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>location</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>reason</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
@@ -119,7 +119,7 @@
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lon</t>
@@ -132,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,15 +150,6 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -182,15 +173,6 @@
       <name val="Noto Sans KR"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -237,9 +219,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
       </right>
@@ -255,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -263,16 +243,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -579,39 +567,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="118.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -643,10 +632,10 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
         <v>129.08352033344701</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="7">
         <v>35.126000438462597</v>
       </c>
       <c r="J2" s="5"/>
@@ -673,10 +662,10 @@
       <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>129.08723968146299</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="7">
         <v>35.120880902483997</v>
       </c>
       <c r="J3" s="5"/>
@@ -703,10 +692,10 @@
       <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <v>129.087840194563</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="7">
         <v>35.150410567907002</v>
       </c>
       <c r="J4" s="5"/>
@@ -733,10 +722,10 @@
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <v>129.07292134156901</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="7">
         <v>35.136689813216897</v>
       </c>
       <c r="J5" s="5"/>
@@ -763,10 +752,10 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="7">
         <v>129.06772225123001</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="7">
         <v>35.138454833764598</v>
       </c>
     </row>
@@ -792,10 +781,10 @@
       <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="7">
         <v>129.0700405032</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="7">
         <v>35.134260878291897</v>
       </c>
       <c r="J7" s="5"/>
@@ -822,10 +811,10 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="7">
         <v>129.099933489275</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="7">
         <v>35.123166779958602</v>
       </c>
     </row>
@@ -851,10 +840,10 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="7">
         <v>129.09714119461299</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="7">
         <v>35.146437984590698</v>
       </c>
       <c r="J9" s="5"/>
@@ -881,10 +870,10 @@
       <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="7">
         <v>129.111891225813</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="7">
         <v>35.119858951758602</v>
       </c>
       <c r="J10" s="5"/>
@@ -911,14 +900,14 @@
       <c r="G11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="8">
         <v>129.09036311190599</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="8">
         <v>35.134515676782001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>45365</v>
       </c>
@@ -940,10 +929,10 @@
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="7">
         <v>129.09360634615999</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="7">
         <v>35.110371656197302</v>
       </c>
       <c r="J12" s="5"/>
